--- a/data_year/zb/金融业/货币供应量.xlsx
+++ b/data_year/zb/金融业/货币供应量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1156 +518,696 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81463.10000000001</v>
+        <v>459230.3</v>
       </c>
       <c r="C2" t="n">
-        <v>64332.4</v>
+        <v>303302.5</v>
       </c>
       <c r="D2" t="n">
-        <v>7.9</v>
+        <v>16.31</v>
       </c>
       <c r="E2" t="n">
-        <v>5869.7</v>
+        <v>50069.1</v>
       </c>
       <c r="F2" t="n">
-        <v>18.3</v>
+        <v>15.99</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>18.9</v>
       </c>
       <c r="H2" t="n">
-        <v>11261.1</v>
+        <v>105858.65</v>
       </c>
       <c r="I2" t="n">
-        <v>18.8</v>
+        <v>28.65</v>
       </c>
       <c r="J2" t="n">
-        <v>14652.7</v>
+        <v>44628.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8.8974768682</v>
+        <v>16.6873</v>
       </c>
       <c r="L2" t="n">
-        <v>53147.2</v>
+        <v>266621.5</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>21.1908</v>
       </c>
       <c r="N2" t="n">
-        <v>38494.5</v>
+        <v>221993.4</v>
       </c>
       <c r="O2" t="n">
-        <v>18.9</v>
+        <v>22.14</v>
       </c>
       <c r="P2" t="n">
-        <v>134610.3</v>
+        <v>725851.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.2708571209</v>
+        <v>19.7331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98430.3</v>
+        <v>561743.22</v>
       </c>
       <c r="C3" t="n">
-        <v>73762.39999999999</v>
+        <v>352797.5</v>
       </c>
       <c r="D3" t="n">
-        <v>14.66</v>
+        <v>16.17</v>
       </c>
       <c r="E3" t="n">
-        <v>10487.8</v>
+        <v>42329.7</v>
       </c>
       <c r="F3" t="n">
-        <v>9.07</v>
+        <v>17.68</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>16.83</v>
       </c>
       <c r="H3" t="n">
-        <v>14180.1</v>
+        <v>166616.04</v>
       </c>
       <c r="I3" t="n">
-        <v>25.92</v>
+        <v>18.05</v>
       </c>
       <c r="J3" t="n">
-        <v>15688.8</v>
+        <v>50748.46</v>
       </c>
       <c r="K3" t="n">
-        <v>7.07</v>
+        <v>13.76</v>
       </c>
       <c r="L3" t="n">
-        <v>59871.59</v>
+        <v>289847.7</v>
       </c>
       <c r="M3" t="n">
-        <v>12.65</v>
+        <v>7.85</v>
       </c>
       <c r="N3" t="n">
-        <v>44182.8</v>
+        <v>239099.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14.78</v>
+        <v>6.67</v>
       </c>
       <c r="P3" t="n">
-        <v>158301.9</v>
+        <v>851590.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.42</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114125.2</v>
+        <v>665484.6</v>
       </c>
       <c r="C4" t="n">
-        <v>86910.7</v>
+        <v>411362.6</v>
       </c>
       <c r="D4" t="n">
-        <v>17.82</v>
+        <v>16.6</v>
       </c>
       <c r="E4" t="n">
-        <v>10780.7</v>
+        <v>58181.9</v>
       </c>
       <c r="F4" t="n">
-        <v>2.77</v>
+        <v>25.14</v>
       </c>
       <c r="G4" t="n">
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
       <c r="H4" t="n">
-        <v>16433.8</v>
+        <v>195940.1</v>
       </c>
       <c r="I4" t="n">
-        <v>21.81</v>
+        <v>17.6</v>
       </c>
       <c r="J4" t="n">
-        <v>17278.03</v>
+        <v>54659.81</v>
       </c>
       <c r="K4" t="n">
-        <v>10.13</v>
+        <v>7.71</v>
       </c>
       <c r="L4" t="n">
-        <v>70881.78999999999</v>
+        <v>308664.2</v>
       </c>
       <c r="M4" t="n">
-        <v>16.82</v>
+        <v>6.49</v>
       </c>
       <c r="N4" t="n">
-        <v>53603.8</v>
+        <v>254004.5</v>
       </c>
       <c r="O4" t="n">
-        <v>19.15</v>
+        <v>6.24</v>
       </c>
       <c r="P4" t="n">
-        <v>185006.97</v>
+        <v>974148.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.78</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137104.3</v>
+        <v>769233.929426646</v>
       </c>
       <c r="C5" t="n">
-        <v>103617.7</v>
+        <v>467031.116113744</v>
       </c>
       <c r="D5" t="n">
-        <v>19.22</v>
+        <v>13.53</v>
       </c>
       <c r="E5" t="n">
-        <v>12546.2</v>
+        <v>69506.23041267481</v>
       </c>
       <c r="F5" t="n">
-        <v>16.38</v>
+        <v>19.45</v>
       </c>
       <c r="G5" t="n">
-        <v>20.13</v>
+        <v>15.59</v>
       </c>
       <c r="H5" t="n">
-        <v>20940.4</v>
+        <v>232696.582900227</v>
       </c>
       <c r="I5" t="n">
-        <v>27.42</v>
+        <v>18.77</v>
       </c>
       <c r="J5" t="n">
-        <v>19745.9</v>
+        <v>58574.444020887</v>
       </c>
       <c r="K5" t="n">
-        <v>14.283283453</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>84118.57000000001</v>
+        <v>337291.05</v>
       </c>
       <c r="M5" t="n">
-        <v>18.6744437464</v>
+        <v>9.26</v>
       </c>
       <c r="N5" t="n">
-        <v>64372.6</v>
+        <v>278716.606476683</v>
       </c>
       <c r="O5" t="n">
-        <v>20.29</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>221222.8</v>
+        <v>1106524.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.5753868084</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158137.2</v>
+        <v>880318.4</v>
       </c>
       <c r="C6" t="n">
-        <v>119555.4</v>
+        <v>508878.12</v>
       </c>
       <c r="D6" t="n">
-        <v>15.38</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>13199.7</v>
+        <v>107384.57</v>
       </c>
       <c r="F6" t="n">
-        <v>5.21</v>
+        <v>54.5</v>
       </c>
       <c r="G6" t="n">
-        <v>15.34</v>
+        <v>14.44</v>
       </c>
       <c r="H6" t="n">
-        <v>25382.2</v>
+        <v>264055.71</v>
       </c>
       <c r="I6" t="n">
-        <v>21.21</v>
+        <v>13.48</v>
       </c>
       <c r="J6" t="n">
-        <v>21468.3</v>
+        <v>60259.53</v>
       </c>
       <c r="K6" t="n">
-        <v>8.720000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="L6" t="n">
-        <v>95969.7</v>
+        <v>348056.41</v>
       </c>
       <c r="M6" t="n">
-        <v>13.58</v>
+        <v>3.19</v>
       </c>
       <c r="N6" t="n">
-        <v>74501.39999999999</v>
+        <v>287796.88</v>
       </c>
       <c r="O6" t="n">
-        <v>15.06</v>
+        <v>3.26</v>
       </c>
       <c r="P6" t="n">
-        <v>254107</v>
+        <v>1228374.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.67</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191476.91</v>
+        <v>991324.67</v>
       </c>
       <c r="C7" t="n">
-        <v>141050.99</v>
+        <v>552073.48</v>
       </c>
       <c r="D7" t="n">
-        <v>17.98</v>
+        <v>8.49</v>
       </c>
       <c r="E7" t="n">
-        <v>17325.93</v>
+        <v>151010.53</v>
       </c>
       <c r="F7" t="n">
-        <v>31.26</v>
+        <v>40.63</v>
       </c>
       <c r="G7" t="n">
-        <v>21.08</v>
+        <v>12.61</v>
       </c>
       <c r="H7" t="n">
-        <v>33099.99</v>
+        <v>288240.66</v>
       </c>
       <c r="I7" t="n">
-        <v>30.41</v>
+        <v>9.16</v>
       </c>
       <c r="J7" t="n">
-        <v>24031.7</v>
+        <v>63216.58</v>
       </c>
       <c r="K7" t="n">
-        <v>11.94</v>
+        <v>4.91</v>
       </c>
       <c r="L7" t="n">
-        <v>107278.8</v>
+        <v>400953.44</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7839276355</v>
+        <v>15.2</v>
       </c>
       <c r="N7" t="n">
-        <v>83247.09</v>
+        <v>337736.86</v>
       </c>
       <c r="O7" t="n">
-        <v>11.74</v>
+        <v>17.35</v>
       </c>
       <c r="P7" t="n">
-        <v>298755.7</v>
+        <v>1392278.11</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.5708264629</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219549.9</v>
+        <v>1063509.43043996</v>
       </c>
       <c r="C8" t="n">
-        <v>161587.3</v>
+        <v>603504.197568975</v>
       </c>
       <c r="D8" t="n">
-        <v>14.559493698</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>19246.7</v>
+        <v>152015.620611423</v>
       </c>
       <c r="F8" t="n">
-        <v>36.2</v>
+        <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>16.6</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>38715.9</v>
+        <v>307989.612259567</v>
       </c>
       <c r="I8" t="n">
-        <v>17.1</v>
+        <v>6.9</v>
       </c>
       <c r="J8" t="n">
-        <v>27072.62</v>
+        <v>68303.8678027842</v>
       </c>
       <c r="K8" t="n">
-        <v>12.6537864571</v>
+        <v>8.1</v>
       </c>
       <c r="L8" t="n">
-        <v>126028.1</v>
+        <v>486557.237370892</v>
       </c>
       <c r="M8" t="n">
-        <v>17.49</v>
+        <v>21.4</v>
       </c>
       <c r="N8" t="n">
-        <v>98955.39999999999</v>
+        <v>418253.37</v>
       </c>
       <c r="O8" t="n">
-        <v>18.8780412625</v>
+        <v>23.8</v>
       </c>
       <c r="P8" t="n">
-        <v>345577.9</v>
+        <v>1550066.66781086</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250882.1</v>
+        <v>1146445.16948961</v>
       </c>
       <c r="C9" t="n">
-        <v>172534.19</v>
+        <v>649341.499061255</v>
       </c>
       <c r="D9" t="n">
-        <v>6.7745980037</v>
+        <v>7.6</v>
       </c>
       <c r="E9" t="n">
-        <v>31415.43</v>
+        <v>176907.441021246</v>
       </c>
       <c r="F9" t="n">
-        <v>63.2046693092</v>
+        <v>6.5</v>
       </c>
       <c r="G9" t="n">
-        <v>14.3</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>46932.51</v>
+        <v>320196.229407105</v>
       </c>
       <c r="I9" t="n">
-        <v>21.200291299</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>30375.23</v>
+        <v>70645.5992424259</v>
       </c>
       <c r="K9" t="n">
-        <v>12.1990778875</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>152560.08</v>
+        <v>543790.145191184</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>11.8</v>
       </c>
       <c r="N9" t="n">
-        <v>122184.9</v>
+        <v>473144.545948758</v>
       </c>
       <c r="O9" t="n">
-        <v>23.4658458036</v>
+        <v>13.1</v>
       </c>
       <c r="P9" t="n">
-        <v>403442.21</v>
+        <v>1690235.31468079</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.7355379613</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308949.47</v>
+        <v>1275058.3</v>
       </c>
       <c r="C10" t="n">
-        <v>217885.35</v>
+        <v>721688.6</v>
       </c>
       <c r="D10" t="n">
-        <v>26.29</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="n">
-        <v>30961.06</v>
+        <v>213190.8</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.45</v>
+        <v>20.5</v>
       </c>
       <c r="G10" t="n">
-        <v>23.15</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="n">
-        <v>60103.06</v>
+        <v>340178.9</v>
       </c>
       <c r="I10" t="n">
-        <v>28.06</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>34218.96</v>
+        <v>73208.39999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>12.65</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>166217.13</v>
+        <v>551685.9</v>
       </c>
       <c r="M10" t="n">
-        <v>9.06</v>
+        <v>1.5</v>
       </c>
       <c r="N10" t="n">
-        <v>131998.17</v>
+        <v>478477.5</v>
       </c>
       <c r="O10" t="n">
-        <v>8.17</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>475166.6</v>
+        <v>1826744.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>388778.7</v>
+        <v>1410479.66714829</v>
       </c>
       <c r="C11" t="n">
-        <v>260752.7</v>
+        <v>819161.837527285</v>
       </c>
       <c r="D11" t="n">
-        <v>19.68</v>
+        <v>13.5062779818</v>
       </c>
       <c r="E11" t="n">
-        <v>43206.5</v>
+        <v>227831.790904532</v>
       </c>
       <c r="F11" t="n">
-        <v>39.6</v>
+        <v>6.8675397477</v>
       </c>
       <c r="G11" t="n">
-        <v>26</v>
+        <v>10.6207973484</v>
       </c>
       <c r="H11" t="n">
-        <v>84819.5</v>
+        <v>363486.038716478</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>6.8514328275</v>
       </c>
       <c r="J11" t="n">
-        <v>38247</v>
+        <v>77189.4745230608</v>
       </c>
       <c r="K11" t="n">
-        <v>11.77</v>
+        <v>5.44</v>
       </c>
       <c r="L11" t="n">
-        <v>221445.8</v>
+        <v>576009.1514952159</v>
       </c>
       <c r="M11" t="n">
-        <v>33.2</v>
+        <v>4.4088934689</v>
       </c>
       <c r="N11" t="n">
-        <v>183198.8</v>
+        <v>498819.676972155</v>
       </c>
       <c r="O11" t="n">
-        <v>38.8</v>
+        <v>4.2514376592</v>
       </c>
       <c r="P11" t="n">
-        <v>610224.5</v>
+        <v>1986488.81864351</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.5</v>
+        <v>8.744771246899999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>459230.3</v>
+        <v>1561214.90078601</v>
       </c>
       <c r="C12" t="n">
-        <v>303302.5</v>
+        <v>932966.34989897</v>
       </c>
       <c r="D12" t="n">
-        <v>16.31</v>
+        <v>13.8927995858809</v>
       </c>
       <c r="E12" t="n">
-        <v>50069.1</v>
+        <v>244411.215354294</v>
       </c>
       <c r="F12" t="n">
-        <v>15.99</v>
+        <v>7.27704609788627</v>
       </c>
       <c r="G12" t="n">
-        <v>18.9</v>
+        <v>10.6868065629387</v>
       </c>
       <c r="H12" t="n">
-        <v>105858.65</v>
+        <v>383837.335532751</v>
       </c>
       <c r="I12" t="n">
-        <v>28.65</v>
+        <v>5.59892118226499</v>
       </c>
       <c r="J12" t="n">
-        <v>44628.2</v>
+        <v>84314.5339956892</v>
       </c>
       <c r="K12" t="n">
-        <v>16.6873</v>
+        <v>9.23061015333089</v>
       </c>
       <c r="L12" t="n">
-        <v>266621.5</v>
+        <v>625580.989893042</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1908</v>
+        <v>8.606085210477151</v>
       </c>
       <c r="N12" t="n">
-        <v>221993.4</v>
+        <v>541266.455897352</v>
       </c>
       <c r="O12" t="n">
-        <v>22.14</v>
+        <v>8.509443569437551</v>
       </c>
       <c r="P12" t="n">
-        <v>725851.8</v>
+        <v>2186795.89067906</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.7331</v>
+        <v>10.0834734208233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561743.22</v>
+        <v>1735456.20996134</v>
       </c>
       <c r="C13" t="n">
-        <v>352797.5</v>
+        <v>1032441.18381299</v>
       </c>
       <c r="D13" t="n">
-        <v>16.17</v>
+        <v>10.6622102635095</v>
       </c>
       <c r="E13" t="n">
-        <v>42329.7</v>
+        <v>290063.471442024</v>
       </c>
       <c r="F13" t="n">
-        <v>17.68</v>
+        <v>18.6784620425673</v>
       </c>
       <c r="G13" t="n">
-        <v>16.83</v>
+        <v>11.1606229922351</v>
       </c>
       <c r="H13" t="n">
-        <v>166616.04</v>
+        <v>412951.554706329</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05</v>
+        <v>7.58504097397631</v>
       </c>
       <c r="J13" t="n">
-        <v>50748.46</v>
+        <v>90825.14999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>13.76</v>
+        <v>7.7</v>
       </c>
       <c r="L13" t="n">
-        <v>289847.7</v>
+        <v>647443.35</v>
       </c>
       <c r="M13" t="n">
-        <v>7.85</v>
+        <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>239099.2</v>
+        <v>556618.198436347</v>
       </c>
       <c r="O13" t="n">
-        <v>6.67</v>
+        <v>2.83626342843353</v>
       </c>
       <c r="P13" t="n">
-        <v>851590.9</v>
+        <v>2382899.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>665484.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>411362.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>58181.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>195940.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17.6</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>54659.81</v>
+        <v>104706.03</v>
       </c>
       <c r="K14" t="n">
-        <v>7.71</v>
+        <v>15.3</v>
       </c>
       <c r="L14" t="n">
-        <v>308664.2</v>
+        <v>671674.76</v>
       </c>
       <c r="M14" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="N14" t="n">
-        <v>254004.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6.24</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>974148.8</v>
+        <v>2664320.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>769233.929426646</v>
-      </c>
-      <c r="C15" t="n">
-        <v>467031.116113744</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="E15" t="n">
-        <v>69506.23041267481</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="H15" t="n">
-        <v>232696.582900227</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="J15" t="n">
-        <v>58574.444020887</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>337291.05</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="N15" t="n">
-        <v>278716.606476683</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1106524.98</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13.59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>880318.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>508878.12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>107384.57</v>
-      </c>
-      <c r="F16" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="H16" t="n">
-        <v>264055.71</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>60259.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>348056.41</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="N16" t="n">
-        <v>287796.88</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1228374.81</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>991324.67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>552073.48</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E17" t="n">
-        <v>151010.53</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="H17" t="n">
-        <v>288240.66</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63216.58</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="L17" t="n">
-        <v>400953.44</v>
-      </c>
-      <c r="M17" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>337736.86</v>
-      </c>
-      <c r="O17" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1392278.11</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13.34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1063509.43043996</v>
-      </c>
-      <c r="C18" t="n">
-        <v>603504.197568975</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>152015.620611423</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>307989.612259567</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>68303.8678027842</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>486557.237370892</v>
-      </c>
-      <c r="M18" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>418253.37</v>
-      </c>
-      <c r="O18" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1550066.66781086</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1146445.16948961</v>
-      </c>
-      <c r="C19" t="n">
-        <v>649341.499061255</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>176907.441021246</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>320196.229407105</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>70645.5992424259</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>543790.145191184</v>
-      </c>
-      <c r="M19" t="n">
         <v>11.8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>473144.545948758</v>
-      </c>
-      <c r="O19" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1690235.31468079</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1275058.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>721688.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>213190.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>340178.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>73208.39999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>551685.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>478477.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1826744.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1410479.66714829</v>
-      </c>
-      <c r="C21" t="n">
-        <v>819161.837527285</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.5062779818</v>
-      </c>
-      <c r="E21" t="n">
-        <v>227831.790904532</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6.8675397477</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10.6207973484</v>
-      </c>
-      <c r="H21" t="n">
-        <v>363486.038716478</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.8514328275</v>
-      </c>
-      <c r="J21" t="n">
-        <v>77189.4745230608</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="L21" t="n">
-        <v>576009.1514952159</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.4088934689</v>
-      </c>
-      <c r="N21" t="n">
-        <v>498819.676972155</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4.2514376592</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1986488.81864351</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>8.744771246899999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1561214.90078601</v>
-      </c>
-      <c r="C22" t="n">
-        <v>932966.34989897</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.8927995858809</v>
-      </c>
-      <c r="E22" t="n">
-        <v>244411.215354294</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7.27704609788627</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.6868065629387</v>
-      </c>
-      <c r="H22" t="n">
-        <v>383837.335532751</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.59892118226499</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84314.5339956892</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.23061015333089</v>
-      </c>
-      <c r="L22" t="n">
-        <v>625580.989893042</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.606085210477151</v>
-      </c>
-      <c r="N22" t="n">
-        <v>541266.455897352</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8.509443569437551</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2186795.89067906</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>10.0834734208233</v>
       </c>
     </row>
   </sheetData>
